--- a/hall_effect/data.xlsx
+++ b/hall_effect/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02c8cc13a3ad45b4/桌面/台大電機/普物實驗/physics_exp/hall_effect/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stati\OneDrive - g.ntu.edu.tw\桌面\台大電機\普物實驗\physics_exp\hall_effect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{9B7712BB-746E-433C-9956-86D78667B3BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CA34770F-2205-43B6-A966-237C96D31168}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{9B7712BB-746E-433C-9956-86D78667B3BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{78D4FE4C-A821-455A-A67D-F5CDF05C673D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{DC8063BF-D125-4E07-AFFD-3E1DDEB4E073}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5580" xr2:uid="{DC8063BF-D125-4E07-AFFD-3E1DDEB4E073}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>VH-B</a:t>
+              <a:t>V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="900"/>
+              <a:t>H</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>-B(N)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -364,6 +372,124 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3406625821439475E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0791706606066137E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7835903453739342E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4880100301412548E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$B$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.96500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A627-4394-8BC8-720C86B28F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -396,6 +522,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>B(T)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -458,6 +640,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="700" b="0" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>H</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(mV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -566,214 +829,13 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-TW"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>工作表1!$B$12:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.3406625821439475E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0791706606066137E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.7835903453739342E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.4880100301412548E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>工作表1!$B$15:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>-0.64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.96500000000000008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-08FD-4E3E-A3A4-CE3269DFA4E1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="695730752"/>
-        <c:axId val="333907904"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="695730752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -785,142 +847,39 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="900" b="0" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>H</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-B(P)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="333907904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="333907904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="695730752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1074,246 +1033,9 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="748431472"/>
-        <c:axId val="708031264"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="748431472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="708031264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="708031264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="748431472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1326,11 +1048,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1340,7 +1062,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -1425,7 +1147,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A61-4B0F-A850-C74FC5C0EE6C}"/>
+              <c16:uniqueId val="{00000001-6822-4FD7-9B75-E62691DA0E36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1437,11 +1159,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="695571504"/>
-        <c:axId val="423799280"/>
+        <c:axId val="748431472"/>
+        <c:axId val="708031264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="695571504"/>
+        <c:axId val="748431472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,6 +1183,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>B(T)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1498,12 +1276,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423799280"/>
+        <c:crossAx val="708031264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423799280"/>
+        <c:axId val="708031264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,6 +1301,87 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="700" b="0" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>H</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(mV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1560,7 +1419,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695571504"/>
+        <c:crossAx val="748431472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1696,86 +1555,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2808,1052 +2587,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>135254</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>173354</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3881,51 +2628,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96501A2-5B5C-472B-A24B-B5CEC67F6E8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>201930</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>506730</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3944,43 +2655,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>34290</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>186690</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17B963C-7FCC-4301-BB5E-1A871C0A889C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4289,17 +2964,17 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4311,7 +2986,7 @@
         <v>3.4088393695346402E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4319,7 +2994,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4336,7 +3011,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4357,7 +3032,7 @@
         <v>8.4880100301412548E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4374,7 +3049,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4391,7 +3066,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4412,7 +3087,7 @@
         <v>-0.81</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4420,7 +3095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4428,7 +3103,7 @@
         <v>20.059999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -4445,7 +3120,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4466,7 +3141,7 @@
         <v>8.4880100301412548E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4486,7 +3161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -4503,7 +3178,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -4524,7 +3199,7 @@
         <v>-1.63</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -4532,7 +3207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -4540,7 +3215,7 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -4557,7 +3232,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -4578,7 +3253,7 @@
         <v>8.4880100301412548E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -4595,7 +3270,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4612,7 +3287,7 @@
         <v>-1.1499999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -4633,7 +3308,7 @@
         <v>1.095</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -4641,7 +3316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -4649,7 +3324,7 @@
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -4666,7 +3341,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -4687,7 +3362,7 @@
         <v>8.4880100301412548E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -4704,7 +3379,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -4721,7 +3396,7 @@
         <v>-2.25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -4742,7 +3417,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>10</v>
       </c>
@@ -4759,7 +3434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4786,7 +3461,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>20</v>
       </c>
@@ -4810,7 +3485,7 @@
         <v>-38.399999999999991</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -4837,7 +3512,7 @@
         <v>25.599999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>20</v>
       </c>
@@ -4861,7 +3536,7 @@
         <v>53.399999999999991</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -4878,7 +3553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.01</v>
       </c>
@@ -4887,7 +3562,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.02</v>
       </c>
@@ -4896,7 +3571,7 @@
         <v>-1.6989700043360187</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.03</v>
       </c>
@@ -4905,7 +3580,7 @@
         <v>-1.5228787452803376</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.04</v>
       </c>
@@ -4914,7 +3589,7 @@
         <v>-1.3979400086720375</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.05</v>
       </c>
@@ -4923,7 +3598,7 @@
         <v>-1.3010299956639813</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4932,7 +3607,7 @@
         <v>-1.1549019599857431</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.1</v>
       </c>
@@ -4941,7 +3616,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.14000000000000001</v>
       </c>
@@ -4950,7 +3625,7 @@
         <v>-0.85387196432176193</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.2</v>
       </c>
@@ -4959,7 +3634,7 @@
         <v>-0.69897000433601875</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.28000000000000003</v>
       </c>
@@ -4968,7 +3643,7 @@
         <v>-0.55284196865778079</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.4</v>
       </c>
@@ -4977,7 +3652,7 @@
         <v>-0.3979400086720376</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.56999999999999995</v>
       </c>
@@ -4986,7 +3661,7 @@
         <v>-0.24412514432750865</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.8</v>
       </c>
@@ -4995,7 +3670,7 @@
         <v>-9.6910013008056392E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1.1299999999999999</v>
       </c>
@@ -5004,7 +3679,7 @@
         <v>5.3078443483419682E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1.6</v>
       </c>
@@ -5013,7 +3688,7 @@
         <v>0.20411998265592479</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2.2999999999999998</v>
       </c>
@@ -5022,7 +3697,7 @@
         <v>0.36172783601759284</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4.5</v>
       </c>
@@ -5031,7 +3706,7 @@
         <v>0.65321251377534373</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6.4</v>
       </c>
@@ -5040,7 +3715,7 @@
         <v>0.80617997398388719</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>9</v>
       </c>
@@ -5049,7 +3724,7 @@
         <v>0.95424250943932487</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12.5</v>
       </c>
@@ -5058,7 +3733,7 @@
         <v>1.0969100130080565</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>18</v>
       </c>
@@ -5067,7 +3742,7 @@
         <v>1.255272505103306</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>25</v>
       </c>
@@ -5076,7 +3751,7 @@
         <v>1.3979400086720377</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>35</v>
       </c>
@@ -5085,7 +3760,7 @@
         <v>1.5440680443502757</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>50</v>
       </c>
@@ -5094,7 +3769,7 @@
         <v>1.6989700043360187</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>70</v>
       </c>
@@ -5103,7 +3778,7 @@
         <v>1.8450980400142569</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>100</v>
       </c>
